--- a/output/jamesle01.xlsx
+++ b/output/jamesle01.xlsx
@@ -843,10 +843,10 @@
         <v>16.1</v>
       </c>
       <c r="R2">
-        <v>0.4379999999999999</v>
+        <v>0.438</v>
       </c>
       <c r="S2">
-        <v>0.4379999999999999</v>
+        <v>0.438</v>
       </c>
       <c r="T2">
         <v>4.4</v>
@@ -1196,9 +1196,6 @@
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="I8">
-        <v>4</v>
-      </c>
       <c r="J8">
         <v>0.09999999999999964</v>
       </c>
@@ -1206,7 +1203,7 @@
         <v>0.5</v>
       </c>
       <c r="L8">
-        <v>-0.003999999999999948</v>
+        <v>-0.004000000000000004</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -1215,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>-0.002000000000000057</v>
+        <v>-0.002000000000000002</v>
       </c>
       <c r="P8">
         <v>0.09999999999999964</v>
@@ -1466,9 +1463,6 @@
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="I11">
-        <v>3.800000000000004</v>
-      </c>
       <c r="J11">
         <v>-1.6</v>
       </c>
@@ -1494,7 +1488,7 @@
         <v>-0.6000000000000014</v>
       </c>
       <c r="R11">
-        <v>-0.06500000000000006</v>
+        <v>-0.065</v>
       </c>
       <c r="S11">
         <v>-0.065</v>
@@ -1601,7 +1595,7 @@
         <v>10.3</v>
       </c>
       <c r="V12">
-        <v>0.7120000000000001</v>
+        <v>0.712</v>
       </c>
       <c r="W12">
         <v>1.8</v>
@@ -1736,9 +1730,6 @@
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="I14">
-        <v>2.100000000000001</v>
-      </c>
       <c r="J14">
         <v>-1.9</v>
       </c>
@@ -1746,7 +1737,7 @@
         <v>-0.6999999999999993</v>
       </c>
       <c r="L14">
-        <v>-0.07299999999999995</v>
+        <v>-0.07300000000000001</v>
       </c>
       <c r="M14">
         <v>-0.1000000000000001</v>
@@ -1764,7 +1755,7 @@
         <v>-1.300000000000001</v>
       </c>
       <c r="R14">
-        <v>-0.06800000000000006</v>
+        <v>-0.068</v>
       </c>
       <c r="S14">
         <v>-0.07400000000000001</v>
@@ -1776,7 +1767,7 @@
         <v>2.5</v>
       </c>
       <c r="V14">
-        <v>0.01899999999999991</v>
+        <v>0.01900000000000002</v>
       </c>
       <c r="W14">
         <v>-0.6000000000000001</v>
@@ -1957,10 +1948,10 @@
         <v>16.5</v>
       </c>
       <c r="R16">
-        <v>0.5710000000000001</v>
+        <v>0.571</v>
       </c>
       <c r="S16">
-        <v>0.5529999999999999</v>
+        <v>0.553</v>
       </c>
       <c r="T16">
         <v>10.6</v>
@@ -1969,7 +1960,7 @@
         <v>14.2</v>
       </c>
       <c r="V16">
-        <v>0.7490000000000001</v>
+        <v>0.749</v>
       </c>
       <c r="W16">
         <v>1.4</v>
@@ -2006,9 +1997,6 @@
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="I17">
-        <v>3.699999999999996</v>
-      </c>
       <c r="J17">
         <v>1.700000000000001</v>
       </c>
@@ -2025,7 +2013,7 @@
         <v>1.1</v>
       </c>
       <c r="O17">
-        <v>-0.01100000000000001</v>
+        <v>-0.01099999999999995</v>
       </c>
       <c r="P17">
         <v>1.300000000000001</v>
@@ -2034,10 +2022,10 @@
         <v>1.300000000000001</v>
       </c>
       <c r="R17">
-        <v>0.03600000000000003</v>
+        <v>0.03599999999999992</v>
       </c>
       <c r="S17">
-        <v>0.02299999999999991</v>
+        <v>0.02300000000000002</v>
       </c>
       <c r="T17">
         <v>3.3</v>
@@ -2046,7 +2034,7 @@
         <v>4.799999999999999</v>
       </c>
       <c r="V17">
-        <v>-0.03099999999999992</v>
+        <v>-0.03100000000000003</v>
       </c>
       <c r="W17">
         <v>0.09999999999999987</v>
@@ -2276,9 +2264,6 @@
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="I20">
-        <v>2.799999999999997</v>
-      </c>
       <c r="J20">
         <v>-0.5</v>
       </c>
@@ -2295,7 +2280,7 @@
         <v>-0.5999999999999996</v>
       </c>
       <c r="O20">
-        <v>0.06700000000000006</v>
+        <v>0.067</v>
       </c>
       <c r="P20">
         <v>-0.6000000000000005</v>
@@ -2546,9 +2531,6 @@
       <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="I23">
-        <v>5.100000000000001</v>
-      </c>
       <c r="J23">
         <v>-1.299999999999999</v>
       </c>
@@ -2672,7 +2654,7 @@
         <v>0.556</v>
       </c>
       <c r="S24">
-        <v>0.5539999999999999</v>
+        <v>0.554</v>
       </c>
       <c r="T24">
         <v>6.2</v>
@@ -2681,7 +2663,7 @@
         <v>8.1</v>
       </c>
       <c r="V24">
-        <v>0.7709999999999999</v>
+        <v>0.771</v>
       </c>
       <c r="W24">
         <v>1.5</v>
@@ -2767,7 +2749,7 @@
         <v>18.1</v>
       </c>
       <c r="R25">
-        <v>0.5489999999999999</v>
+        <v>0.549</v>
       </c>
       <c r="S25">
         <v>0.522</v>
@@ -2779,7 +2761,7 @@
         <v>10.2</v>
       </c>
       <c r="V25">
-        <v>0.7390000000000001</v>
+        <v>0.739</v>
       </c>
       <c r="W25">
         <v>2.3</v>
@@ -2816,9 +2798,6 @@
       <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="I26">
-        <v>5.200000000000003</v>
-      </c>
       <c r="J26">
         <v>0.9000000000000004</v>
       </c>
@@ -2844,10 +2823,10 @@
         <v>1.600000000000001</v>
       </c>
       <c r="R26">
-        <v>-0.007000000000000117</v>
+        <v>-0.007000000000000006</v>
       </c>
       <c r="S26">
-        <v>-0.03199999999999992</v>
+        <v>-0.03200000000000003</v>
       </c>
       <c r="T26">
         <v>1.3</v>
@@ -2856,7 +2835,7 @@
         <v>2.1</v>
       </c>
       <c r="V26">
-        <v>-0.03199999999999981</v>
+        <v>-0.03200000000000003</v>
       </c>
       <c r="W26">
         <v>0.7999999999999998</v>
@@ -3086,9 +3065,6 @@
       <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="I29">
-        <v>3.800000000000004</v>
-      </c>
       <c r="J29">
         <v>-0.9000000000000004</v>
       </c>
@@ -3191,7 +3167,7 @@
         <v>17.6</v>
       </c>
       <c r="L30">
-        <v>0.5670000000000001</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="M30">
         <v>1.5</v>
@@ -3319,7 +3295,7 @@
         <v>8</v>
       </c>
       <c r="V31">
-        <v>0.8059999999999999</v>
+        <v>0.806</v>
       </c>
       <c r="W31">
         <v>0.7</v>
@@ -3356,9 +3332,6 @@
       <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="I32">
-        <v>0.5</v>
-      </c>
       <c r="J32">
         <v>-0.4000000000000004</v>
       </c>
@@ -3366,7 +3339,7 @@
         <v>-0.6000000000000014</v>
       </c>
       <c r="L32">
-        <v>-0.002000000000000113</v>
+        <v>-0.002000000000000002</v>
       </c>
       <c r="M32">
         <v>0.3</v>
@@ -3375,7 +3348,7 @@
         <v>0.2999999999999998</v>
       </c>
       <c r="O32">
-        <v>0.02800000000000002</v>
+        <v>0.02799999999999997</v>
       </c>
       <c r="P32">
         <v>-0.5999999999999996</v>
@@ -3396,7 +3369,7 @@
         <v>0.4000000000000004</v>
       </c>
       <c r="V32">
-        <v>0.05599999999999994</v>
+        <v>0.05600000000000005</v>
       </c>
       <c r="W32">
         <v>-0.4000000000000001</v>
@@ -3626,9 +3599,6 @@
       <c r="A35" s="1">
         <v>33</v>
       </c>
-      <c r="I35">
-        <v>6.100000000000001</v>
-      </c>
       <c r="J35">
         <v>2.4</v>
       </c>
@@ -3636,7 +3606,7 @@
         <v>8.699999999999999</v>
       </c>
       <c r="L35">
-        <v>-0.07099999999999995</v>
+        <v>-0.07100000000000001</v>
       </c>
       <c r="M35">
         <v>-0.3999999999999999</v>
@@ -3859,7 +3829,7 @@
         <v>5.9</v>
       </c>
       <c r="V37">
-        <v>0.6609999999999999</v>
+        <v>0.661</v>
       </c>
       <c r="W37">
         <v>2</v>
@@ -3896,9 +3866,6 @@
       <c r="A38" s="1">
         <v>36</v>
       </c>
-      <c r="I38">
-        <v>3.5</v>
-      </c>
       <c r="J38">
         <v>0.7000000000000011</v>
       </c>
@@ -3936,7 +3903,7 @@
         <v>-0.5999999999999996</v>
       </c>
       <c r="V38">
-        <v>-0.07000000000000006</v>
+        <v>-0.06999999999999995</v>
       </c>
       <c r="W38">
         <v>0.5</v>
@@ -4001,7 +3968,7 @@
         <v>18.2</v>
       </c>
       <c r="L39">
-        <v>0.5479999999999999</v>
+        <v>0.548</v>
       </c>
       <c r="M39">
         <v>1.7</v>
@@ -4166,9 +4133,6 @@
       <c r="A41" s="1">
         <v>39</v>
       </c>
-      <c r="I41">
-        <v>3.5</v>
-      </c>
       <c r="J41">
         <v>2.199999999999999</v>
       </c>
@@ -4176,7 +4140,7 @@
         <v>3.100000000000001</v>
       </c>
       <c r="L41">
-        <v>0.01700000000000002</v>
+        <v>0.0169999999999999</v>
       </c>
       <c r="M41">
         <v>0.7</v>
@@ -4185,7 +4149,7 @@
         <v>1.300000000000001</v>
       </c>
       <c r="O41">
-        <v>0.04800000000000004</v>
+        <v>0.04799999999999999</v>
       </c>
       <c r="P41">
         <v>1.299999999999999</v>
@@ -4390,7 +4354,7 @@
         <v>0.596</v>
       </c>
       <c r="S43">
-        <v>0.5770000000000001</v>
+        <v>0.577</v>
       </c>
       <c r="T43">
         <v>7.2</v>
@@ -4436,9 +4400,6 @@
       <c r="A44" s="1">
         <v>42</v>
       </c>
-      <c r="I44">
-        <v>5</v>
-      </c>
       <c r="J44">
         <v>2</v>
       </c>
@@ -4455,7 +4416,7 @@
         <v>0.2000000000000002</v>
       </c>
       <c r="O44">
-        <v>-0.02500000000000002</v>
+        <v>-0.02499999999999997</v>
       </c>
       <c r="P44">
         <v>2.1</v>
@@ -4467,7 +4428,7 @@
         <v>-0.007000000000000006</v>
       </c>
       <c r="S44">
-        <v>-0.0129999999999999</v>
+        <v>-0.01300000000000001</v>
       </c>
       <c r="T44">
         <v>2.5</v>
@@ -4559,7 +4520,7 @@
         <v>14</v>
       </c>
       <c r="R45">
-        <v>0.5820000000000001</v>
+        <v>0.582</v>
       </c>
       <c r="S45">
         <v>0.5600000000000001</v>
@@ -4760,7 +4721,7 @@
         <v>12.5</v>
       </c>
       <c r="R48">
-        <v>0.6459999999999999</v>
+        <v>0.646</v>
       </c>
       <c r="S48">
         <v>0.618</v>
@@ -4809,9 +4770,6 @@
       <c r="A49" s="1">
         <v>47</v>
       </c>
-      <c r="I49">
-        <v>1.699999999999996</v>
-      </c>
       <c r="J49">
         <v>0.5999999999999996</v>
       </c>
@@ -4837,7 +4795,7 @@
         <v>-0.5999999999999996</v>
       </c>
       <c r="R49">
-        <v>0.08199999999999996</v>
+        <v>0.08200000000000007</v>
       </c>
       <c r="S49">
         <v>0.06799999999999995</v>
@@ -5170,9 +5128,6 @@
       <c r="A54" s="1">
         <v>52</v>
       </c>
-      <c r="I54">
-        <v>3.200000000000003</v>
-      </c>
       <c r="J54">
         <v>0.7999999999999989</v>
       </c>
@@ -5180,7 +5135,7 @@
         <v>2.100000000000001</v>
       </c>
       <c r="L54">
-        <v>-0.007000000000000062</v>
+        <v>-0.007000000000000006</v>
       </c>
       <c r="M54">
         <v>0.1000000000000001</v>
@@ -5189,7 +5144,7 @@
         <v>0.5999999999999996</v>
       </c>
       <c r="O54">
-        <v>-0.01400000000000007</v>
+        <v>-0.01400000000000001</v>
       </c>
       <c r="P54">
         <v>0.6999999999999993</v>
@@ -5287,7 +5242,7 @@
         <v>13</v>
       </c>
       <c r="R55">
-        <v>0.5770000000000001</v>
+        <v>0.577</v>
       </c>
       <c r="S55">
         <v>0.5610000000000001</v>
@@ -5379,7 +5334,7 @@
         <v>12.5</v>
       </c>
       <c r="R56">
-        <v>0.6459999999999999</v>
+        <v>0.646</v>
       </c>
       <c r="S56">
         <v>0.618</v>
@@ -5428,9 +5383,6 @@
       <c r="A57" s="1">
         <v>55</v>
       </c>
-      <c r="I57">
-        <v>1.699999999999996</v>
-      </c>
       <c r="J57">
         <v>0.5</v>
       </c>
@@ -5456,7 +5408,7 @@
         <v>-0.5</v>
       </c>
       <c r="R57">
-        <v>0.06899999999999984</v>
+        <v>0.06900000000000006</v>
       </c>
       <c r="S57">
         <v>0.05699999999999994</v>
@@ -5527,7 +5479,7 @@
         <v>18.2</v>
       </c>
       <c r="L58">
-        <v>0.5429999999999999</v>
+        <v>0.543</v>
       </c>
       <c r="M58">
         <v>1.2</v>
@@ -5545,10 +5497,10 @@
         <v>14.9</v>
       </c>
       <c r="R58">
-        <v>0.5820000000000001</v>
+        <v>0.582</v>
       </c>
       <c r="S58">
-        <v>0.5770000000000001</v>
+        <v>0.577</v>
       </c>
       <c r="T58">
         <v>5.9</v>
@@ -5686,9 +5638,6 @@
       <c r="A60" s="1">
         <v>58</v>
       </c>
-      <c r="I60">
-        <v>3.700000000000003</v>
-      </c>
       <c r="J60">
         <v>-0.4000000000000004</v>
       </c>
@@ -5696,7 +5645,7 @@
         <v>0.6999999999999993</v>
       </c>
       <c r="L60">
-        <v>-0.03999999999999992</v>
+        <v>-0.04000000000000004</v>
       </c>
       <c r="M60">
         <v>0.2</v>
@@ -5714,10 +5663,10 @@
         <v>0</v>
       </c>
       <c r="R60">
-        <v>-0.03700000000000003</v>
+        <v>-0.03699999999999992</v>
       </c>
       <c r="S60">
-        <v>-0.03600000000000003</v>
+        <v>-0.03599999999999992</v>
       </c>
       <c r="T60">
         <v>0.5</v>
@@ -5803,7 +5752,7 @@
         <v>0.55</v>
       </c>
       <c r="S61">
-        <v>0.5429999999999999</v>
+        <v>0.543</v>
       </c>
       <c r="T61">
         <v>5.8</v>
@@ -5812,7 +5761,7 @@
         <v>7.9</v>
       </c>
       <c r="V61">
-        <v>0.7340000000000001</v>
+        <v>0.734</v>
       </c>
       <c r="W61">
         <v>1.2</v>
@@ -5889,7 +5838,7 @@
         <v>16</v>
       </c>
       <c r="R62">
-        <v>0.5429999999999999</v>
+        <v>0.543</v>
       </c>
       <c r="S62">
         <v>0.534</v>
@@ -5938,9 +5887,6 @@
       <c r="A63" s="1">
         <v>61</v>
       </c>
-      <c r="I63">
-        <v>3.399999999999999</v>
-      </c>
       <c r="J63">
         <v>0.5</v>
       </c>
@@ -5966,10 +5912,10 @@
         <v>0.8000000000000007</v>
       </c>
       <c r="R63">
-        <v>-0.007000000000000117</v>
+        <v>-0.007000000000000006</v>
       </c>
       <c r="S63">
-        <v>-0.008999999999999897</v>
+        <v>-0.009000000000000008</v>
       </c>
       <c r="T63">
         <v>0.9000000000000004</v>
@@ -5978,7 +5924,7 @@
         <v>1.1</v>
       </c>
       <c r="V63">
-        <v>0.006999999999999895</v>
+        <v>0.007000000000000006</v>
       </c>
       <c r="W63">
         <v>0.3</v>
@@ -6166,7 +6112,7 @@
         <v>14.7</v>
       </c>
       <c r="R2">
-        <v>0.4379999999999999</v>
+        <v>0.438</v>
       </c>
       <c r="S2">
         <v>4</v>
@@ -6507,9 +6453,6 @@
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="I8">
-        <v>-2757</v>
-      </c>
       <c r="J8">
         <v>-0.7000000000000011</v>
       </c>
@@ -6517,7 +6460,7 @@
         <v>-1.199999999999999</v>
       </c>
       <c r="L8">
-        <v>-0.003999999999999948</v>
+        <v>-0.004000000000000004</v>
       </c>
       <c r="M8">
         <v>-0.09999999999999987</v>
@@ -6526,7 +6469,7 @@
         <v>-0.2999999999999998</v>
       </c>
       <c r="O8">
-        <v>-0.002000000000000057</v>
+        <v>-0.002000000000000002</v>
       </c>
       <c r="P8">
         <v>-0.5</v>
@@ -6768,9 +6711,6 @@
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="I11">
-        <v>-2297</v>
-      </c>
       <c r="J11">
         <v>-1.999999999999999</v>
       </c>
@@ -6796,7 +6736,7 @@
         <v>-1.700000000000001</v>
       </c>
       <c r="R11">
-        <v>-0.06500000000000006</v>
+        <v>-0.065</v>
       </c>
       <c r="S11">
         <v>0.5</v>
@@ -6897,7 +6837,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="U12">
-        <v>0.7120000000000001</v>
+        <v>0.712</v>
       </c>
       <c r="V12">
         <v>1.6</v>
@@ -7029,9 +6969,6 @@
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="I14">
-        <v>-2475</v>
-      </c>
       <c r="J14">
         <v>-2</v>
       </c>
@@ -7039,7 +6976,7 @@
         <v>-1.600000000000001</v>
       </c>
       <c r="L14">
-        <v>-0.07299999999999995</v>
+        <v>-0.07300000000000001</v>
       </c>
       <c r="M14">
         <v>-0.1000000000000001</v>
@@ -7057,7 +6994,7 @@
         <v>-1.9</v>
       </c>
       <c r="R14">
-        <v>-0.06800000000000006</v>
+        <v>-0.068</v>
       </c>
       <c r="S14">
         <v>1.5</v>
@@ -7066,7 +7003,7 @@
         <v>1.700000000000001</v>
       </c>
       <c r="U14">
-        <v>0.01899999999999991</v>
+        <v>0.01900000000000002</v>
       </c>
       <c r="V14">
         <v>-0.6000000000000001</v>
@@ -7244,7 +7181,7 @@
         <v>14.3</v>
       </c>
       <c r="R16">
-        <v>0.5710000000000001</v>
+        <v>0.571</v>
       </c>
       <c r="S16">
         <v>9.199999999999999</v>
@@ -7253,7 +7190,7 @@
         <v>12.4</v>
       </c>
       <c r="U16">
-        <v>0.7490000000000001</v>
+        <v>0.749</v>
       </c>
       <c r="V16">
         <v>1.2</v>
@@ -7290,9 +7227,6 @@
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="I17">
-        <v>-2474</v>
-      </c>
       <c r="J17">
         <v>0.5999999999999996</v>
       </c>
@@ -7309,7 +7243,7 @@
         <v>0.5</v>
       </c>
       <c r="O17">
-        <v>-0.01100000000000001</v>
+        <v>-0.01099999999999995</v>
       </c>
       <c r="P17">
         <v>0.4999999999999991</v>
@@ -7318,7 +7252,7 @@
         <v>-0.1999999999999993</v>
       </c>
       <c r="R17">
-        <v>0.03600000000000003</v>
+        <v>0.03599999999999992</v>
       </c>
       <c r="S17">
         <v>2.199999999999999</v>
@@ -7327,7 +7261,7 @@
         <v>3.4</v>
       </c>
       <c r="U17">
-        <v>-0.03099999999999992</v>
+        <v>-0.03100000000000003</v>
       </c>
       <c r="V17">
         <v>0</v>
@@ -7551,9 +7485,6 @@
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="I20">
-        <v>-2506</v>
-      </c>
       <c r="J20">
         <v>-1</v>
       </c>
@@ -7570,7 +7501,7 @@
         <v>-0.8000000000000003</v>
       </c>
       <c r="O20">
-        <v>0.06700000000000006</v>
+        <v>0.067</v>
       </c>
       <c r="P20">
         <v>-1.1</v>
@@ -7812,9 +7743,6 @@
       <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="I23">
-        <v>-2141</v>
-      </c>
       <c r="J23">
         <v>-2.100000000000001</v>
       </c>
@@ -7941,7 +7869,7 @@
         <v>7.8</v>
       </c>
       <c r="U24">
-        <v>0.7709999999999999</v>
+        <v>0.771</v>
       </c>
       <c r="V24">
         <v>1.5</v>
@@ -8027,7 +7955,7 @@
         <v>15.3</v>
       </c>
       <c r="R25">
-        <v>0.5489999999999999</v>
+        <v>0.549</v>
       </c>
       <c r="S25">
         <v>6.3</v>
@@ -8036,7 +7964,7 @@
         <v>8.6</v>
       </c>
       <c r="U25">
-        <v>0.7390000000000001</v>
+        <v>0.739</v>
       </c>
       <c r="V25">
         <v>2</v>
@@ -8073,9 +8001,6 @@
       <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="I26">
-        <v>-1343</v>
-      </c>
       <c r="J26">
         <v>-0.4000000000000004</v>
       </c>
@@ -8101,7 +8026,7 @@
         <v>-0.5</v>
       </c>
       <c r="R26">
-        <v>-0.007000000000000117</v>
+        <v>-0.007000000000000006</v>
       </c>
       <c r="S26">
         <v>0.2999999999999998</v>
@@ -8110,7 +8035,7 @@
         <v>0.7999999999999998</v>
       </c>
       <c r="U26">
-        <v>-0.03199999999999981</v>
+        <v>-0.03200000000000003</v>
       </c>
       <c r="V26">
         <v>0.5</v>
@@ -8334,9 +8259,6 @@
       <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="I29">
-        <v>-1917</v>
-      </c>
       <c r="J29">
         <v>-1.699999999999999</v>
       </c>
@@ -8436,7 +8358,7 @@
         <v>16.8</v>
       </c>
       <c r="L30">
-        <v>0.5670000000000001</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="M30">
         <v>1.4</v>
@@ -8558,7 +8480,7 @@
         <v>7.5</v>
       </c>
       <c r="U31">
-        <v>0.8059999999999999</v>
+        <v>0.806</v>
       </c>
       <c r="V31">
         <v>0.7</v>
@@ -8595,9 +8517,6 @@
       <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="I32">
-        <v>-2139</v>
-      </c>
       <c r="J32">
         <v>-0.4000000000000004</v>
       </c>
@@ -8605,7 +8524,7 @@
         <v>-0.8000000000000007</v>
       </c>
       <c r="L32">
-        <v>-0.002000000000000113</v>
+        <v>-0.002000000000000002</v>
       </c>
       <c r="M32">
         <v>0.3</v>
@@ -8614,7 +8533,7 @@
         <v>0.2999999999999998</v>
       </c>
       <c r="O32">
-        <v>0.02800000000000002</v>
+        <v>0.02799999999999997</v>
       </c>
       <c r="P32">
         <v>-0.6999999999999993</v>
@@ -8632,7 +8551,7 @@
         <v>0.2000000000000002</v>
       </c>
       <c r="U32">
-        <v>0.05599999999999994</v>
+        <v>0.05600000000000005</v>
       </c>
       <c r="V32">
         <v>-0.3</v>
@@ -8856,9 +8775,6 @@
       <c r="A35" s="1">
         <v>33</v>
       </c>
-      <c r="I35">
-        <v>-1649</v>
-      </c>
       <c r="J35">
         <v>0.6999999999999993</v>
       </c>
@@ -8866,7 +8782,7 @@
         <v>4.699999999999999</v>
       </c>
       <c r="L35">
-        <v>-0.07099999999999995</v>
+        <v>-0.07100000000000001</v>
       </c>
       <c r="M35">
         <v>-0.5999999999999999</v>
@@ -9080,7 +8996,7 @@
         <v>5.4</v>
       </c>
       <c r="U37">
-        <v>0.6609999999999999</v>
+        <v>0.661</v>
       </c>
       <c r="V37">
         <v>1.8</v>
@@ -9117,9 +9033,6 @@
       <c r="A38" s="1">
         <v>36</v>
       </c>
-      <c r="I38">
-        <v>-1887</v>
-      </c>
       <c r="J38">
         <v>-0.2000000000000011</v>
       </c>
@@ -9154,7 +9067,7 @@
         <v>-1.1</v>
       </c>
       <c r="U38">
-        <v>-0.07000000000000006</v>
+        <v>-0.06999999999999995</v>
       </c>
       <c r="V38">
         <v>0.3</v>
@@ -9219,7 +9132,7 @@
         <v>17.3</v>
       </c>
       <c r="L39">
-        <v>0.5479999999999999</v>
+        <v>0.548</v>
       </c>
       <c r="M39">
         <v>1.6</v>
@@ -9378,9 +9291,6 @@
       <c r="A41" s="1">
         <v>39</v>
       </c>
-      <c r="I41">
-        <v>-2050</v>
-      </c>
       <c r="J41">
         <v>1</v>
       </c>
@@ -9388,7 +9298,7 @@
         <v>1.300000000000001</v>
       </c>
       <c r="L41">
-        <v>0.01700000000000002</v>
+        <v>0.0169999999999999</v>
       </c>
       <c r="M41">
         <v>0.5</v>
@@ -9397,7 +9307,7 @@
         <v>0.7999999999999998</v>
       </c>
       <c r="O41">
-        <v>0.04800000000000004</v>
+        <v>0.04799999999999999</v>
       </c>
       <c r="P41">
         <v>0.5</v>
@@ -9639,9 +9549,6 @@
       <c r="A44" s="1">
         <v>42</v>
       </c>
-      <c r="I44">
-        <v>-2104</v>
-      </c>
       <c r="J44">
         <v>0.5</v>
       </c>
@@ -9658,7 +9565,7 @@
         <v>-0.2999999999999998</v>
       </c>
       <c r="O44">
-        <v>-0.02500000000000002</v>
+        <v>-0.02499999999999997</v>
       </c>
       <c r="P44">
         <v>0.7999999999999989</v>
@@ -9759,7 +9666,7 @@
         <v>14.3</v>
       </c>
       <c r="R45">
-        <v>0.5820000000000001</v>
+        <v>0.582</v>
       </c>
       <c r="S45">
         <v>5.2</v>
@@ -9954,7 +9861,7 @@
         <v>12.4</v>
       </c>
       <c r="R48">
-        <v>0.6459999999999999</v>
+        <v>0.646</v>
       </c>
       <c r="S48">
         <v>5.1</v>
@@ -10000,9 +9907,6 @@
       <c r="A49" s="1">
         <v>47</v>
       </c>
-      <c r="I49">
-        <v>-1554</v>
-      </c>
       <c r="J49">
         <v>0.09999999999999964</v>
       </c>
@@ -10028,7 +9932,7 @@
         <v>-1.199999999999999</v>
       </c>
       <c r="R49">
-        <v>0.08199999999999996</v>
+        <v>0.08200000000000007</v>
       </c>
       <c r="S49">
         <v>1</v>
@@ -10349,9 +10253,6 @@
       <c r="A54" s="1">
         <v>52</v>
       </c>
-      <c r="I54">
-        <v>-26709</v>
-      </c>
       <c r="J54">
         <v>0</v>
       </c>
@@ -10359,7 +10260,7 @@
         <v>0.3000000000000007</v>
       </c>
       <c r="L54">
-        <v>-0.007000000000000062</v>
+        <v>-0.007000000000000006</v>
       </c>
       <c r="M54">
         <v>0</v>
@@ -10368,7 +10269,7 @@
         <v>0.2999999999999998</v>
       </c>
       <c r="O54">
-        <v>-0.01400000000000007</v>
+        <v>-0.01400000000000001</v>
       </c>
       <c r="P54">
         <v>0</v>
@@ -10463,7 +10364,7 @@
         <v>13.6</v>
       </c>
       <c r="R55">
-        <v>0.5770000000000001</v>
+        <v>0.577</v>
       </c>
       <c r="S55">
         <v>4.5</v>
@@ -10552,7 +10453,7 @@
         <v>12.4</v>
       </c>
       <c r="R56">
-        <v>0.6459999999999999</v>
+        <v>0.646</v>
       </c>
       <c r="S56">
         <v>5.1</v>
@@ -10598,9 +10499,6 @@
       <c r="A57" s="1">
         <v>55</v>
       </c>
-      <c r="I57">
-        <v>-4939</v>
-      </c>
       <c r="J57">
         <v>0</v>
       </c>
@@ -10626,7 +10524,7 @@
         <v>-1.199999999999999</v>
       </c>
       <c r="R57">
-        <v>0.06899999999999984</v>
+        <v>0.06900000000000006</v>
       </c>
       <c r="S57">
         <v>0.5999999999999996</v>
@@ -10694,7 +10592,7 @@
         <v>17.3</v>
       </c>
       <c r="L58">
-        <v>0.5429999999999999</v>
+        <v>0.543</v>
       </c>
       <c r="M58">
         <v>1.2</v>
@@ -10712,7 +10610,7 @@
         <v>14.1</v>
       </c>
       <c r="R58">
-        <v>0.5820000000000001</v>
+        <v>0.582</v>
       </c>
       <c r="S58">
         <v>5.6</v>
@@ -10847,9 +10745,6 @@
       <c r="A60" s="1">
         <v>58</v>
       </c>
-      <c r="I60">
-        <v>-7540</v>
-      </c>
       <c r="J60">
         <v>-1.200000000000001</v>
       </c>
@@ -10857,7 +10752,7 @@
         <v>-1</v>
       </c>
       <c r="L60">
-        <v>-0.03999999999999992</v>
+        <v>-0.04000000000000004</v>
       </c>
       <c r="M60">
         <v>0</v>
@@ -10875,7 +10770,7 @@
         <v>-1.199999999999999</v>
       </c>
       <c r="R60">
-        <v>-0.03700000000000003</v>
+        <v>-0.03699999999999992</v>
       </c>
       <c r="S60">
         <v>-0.09999999999999964</v>
@@ -10967,7 +10862,7 @@
         <v>7.4</v>
       </c>
       <c r="U61">
-        <v>0.7340000000000001</v>
+        <v>0.734</v>
       </c>
       <c r="V61">
         <v>1.1</v>
@@ -11044,7 +10939,7 @@
         <v>13.8</v>
       </c>
       <c r="R62">
-        <v>0.5429999999999999</v>
+        <v>0.543</v>
       </c>
       <c r="S62">
         <v>5.8</v>
@@ -11090,9 +10985,6 @@
       <c r="A63" s="1">
         <v>61</v>
       </c>
-      <c r="I63">
-        <v>-39188</v>
-      </c>
       <c r="J63">
         <v>-0.4000000000000004</v>
       </c>
@@ -11118,7 +11010,7 @@
         <v>-0.5</v>
       </c>
       <c r="R63">
-        <v>-0.007000000000000117</v>
+        <v>-0.007000000000000006</v>
       </c>
       <c r="S63">
         <v>0.2999999999999998</v>
@@ -11127,7 +11019,7 @@
         <v>0.3999999999999995</v>
       </c>
       <c r="U63">
-        <v>0.006999999999999895</v>
+        <v>0.007000000000000006</v>
       </c>
       <c r="V63">
         <v>0.2</v>
@@ -11322,7 +11214,7 @@
         <v>21.6</v>
       </c>
       <c r="R2">
-        <v>0.4379999999999999</v>
+        <v>0.438</v>
       </c>
       <c r="S2">
         <v>5.9</v>
@@ -11687,9 +11579,6 @@
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="I8">
-        <v>-2757</v>
-      </c>
       <c r="J8">
         <v>-0.4000000000000004</v>
       </c>
@@ -11697,7 +11586,7 @@
         <v>-0.6000000000000014</v>
       </c>
       <c r="L8">
-        <v>-0.003999999999999948</v>
+        <v>-0.004000000000000004</v>
       </c>
       <c r="M8">
         <v>-0.1000000000000001</v>
@@ -11706,7 +11595,7 @@
         <v>-0.2000000000000002</v>
       </c>
       <c r="O8">
-        <v>-0.002000000000000057</v>
+        <v>-0.002000000000000002</v>
       </c>
       <c r="P8">
         <v>-0.3000000000000007</v>
@@ -11966,9 +11855,6 @@
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="I11">
-        <v>-2297</v>
-      </c>
       <c r="J11">
         <v>-2.4</v>
       </c>
@@ -11994,7 +11880,7 @@
         <v>-1.399999999999999</v>
       </c>
       <c r="R11">
-        <v>-0.06500000000000006</v>
+        <v>-0.065</v>
       </c>
       <c r="S11">
         <v>1.200000000000001</v>
@@ -12101,7 +11987,7 @@
         <v>13.6</v>
       </c>
       <c r="U12">
-        <v>0.7120000000000001</v>
+        <v>0.712</v>
       </c>
       <c r="V12">
         <v>2.3</v>
@@ -12245,9 +12131,6 @@
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="I14">
-        <v>-2475</v>
-      </c>
       <c r="J14">
         <v>-2.6</v>
       </c>
@@ -12255,7 +12138,7 @@
         <v>-1.099999999999998</v>
       </c>
       <c r="L14">
-        <v>-0.07299999999999995</v>
+        <v>-0.07300000000000001</v>
       </c>
       <c r="M14">
         <v>-0.2</v>
@@ -12273,7 +12156,7 @@
         <v>-1.900000000000002</v>
       </c>
       <c r="R14">
-        <v>-0.06800000000000006</v>
+        <v>-0.068</v>
       </c>
       <c r="S14">
         <v>2.600000000000001</v>
@@ -12282,7 +12165,7 @@
         <v>3.299999999999999</v>
       </c>
       <c r="U14">
-        <v>0.01899999999999991</v>
+        <v>0.01900000000000002</v>
       </c>
       <c r="V14">
         <v>-0.6999999999999997</v>
@@ -12472,7 +12355,7 @@
         <v>22.2</v>
       </c>
       <c r="R16">
-        <v>0.5710000000000001</v>
+        <v>0.571</v>
       </c>
       <c r="S16">
         <v>14.3</v>
@@ -12481,7 +12364,7 @@
         <v>19.1</v>
       </c>
       <c r="U16">
-        <v>0.7490000000000001</v>
+        <v>0.749</v>
       </c>
       <c r="V16">
         <v>1.8</v>
@@ -12524,9 +12407,6 @@
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="I17">
-        <v>-2474</v>
-      </c>
       <c r="J17">
         <v>1.300000000000001</v>
       </c>
@@ -12543,7 +12423,7 @@
         <v>1</v>
       </c>
       <c r="O17">
-        <v>-0.01100000000000001</v>
+        <v>-0.01099999999999995</v>
       </c>
       <c r="P17">
         <v>1.1</v>
@@ -12552,7 +12432,7 @@
         <v>0.3999999999999986</v>
       </c>
       <c r="R17">
-        <v>0.03600000000000003</v>
+        <v>0.03599999999999992</v>
       </c>
       <c r="S17">
         <v>3.800000000000001</v>
@@ -12561,7 +12441,7 @@
         <v>5.600000000000001</v>
       </c>
       <c r="U17">
-        <v>-0.03099999999999992</v>
+        <v>-0.03100000000000003</v>
       </c>
       <c r="V17">
         <v>-0.09999999999999987</v>
@@ -12803,9 +12683,6 @@
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="I20">
-        <v>-2506</v>
-      </c>
       <c r="J20">
         <v>-1.699999999999999</v>
       </c>
@@ -12822,7 +12699,7 @@
         <v>-1.300000000000001</v>
       </c>
       <c r="O20">
-        <v>0.06700000000000006</v>
+        <v>0.067</v>
       </c>
       <c r="P20">
         <v>-1.600000000000001</v>
@@ -13082,9 +12959,6 @@
       <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="I23">
-        <v>-2141</v>
-      </c>
       <c r="J23">
         <v>-2.6</v>
       </c>
@@ -13217,7 +13091,7 @@
         <v>11.4</v>
       </c>
       <c r="U24">
-        <v>0.7709999999999999</v>
+        <v>0.771</v>
       </c>
       <c r="V24">
         <v>2.1</v>
@@ -13309,7 +13183,7 @@
         <v>23.1</v>
       </c>
       <c r="R25">
-        <v>0.5489999999999999</v>
+        <v>0.549</v>
       </c>
       <c r="S25">
         <v>9.6</v>
@@ -13318,7 +13192,7 @@
         <v>13</v>
       </c>
       <c r="U25">
-        <v>0.7390000000000001</v>
+        <v>0.739</v>
       </c>
       <c r="V25">
         <v>3</v>
@@ -13361,9 +13235,6 @@
       <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="I26">
-        <v>-1343</v>
-      </c>
       <c r="J26">
         <v>-0.1999999999999993</v>
       </c>
@@ -13389,7 +13260,7 @@
         <v>0</v>
       </c>
       <c r="R26">
-        <v>-0.007000000000000117</v>
+        <v>-0.007000000000000006</v>
       </c>
       <c r="S26">
         <v>0.7999999999999989</v>
@@ -13398,7 +13269,7 @@
         <v>1.6</v>
       </c>
       <c r="U26">
-        <v>-0.03199999999999981</v>
+        <v>-0.03200000000000003</v>
       </c>
       <c r="V26">
         <v>0.8999999999999999</v>
@@ -13640,9 +13511,6 @@
       <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="I29">
-        <v>-1917</v>
-      </c>
       <c r="J29">
         <v>-2</v>
       </c>
@@ -13748,7 +13616,7 @@
         <v>24.5</v>
       </c>
       <c r="L30">
-        <v>0.5670000000000001</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="M30">
         <v>2.1</v>
@@ -13876,7 +13744,7 @@
         <v>11.7</v>
       </c>
       <c r="U31">
-        <v>0.8059999999999999</v>
+        <v>0.806</v>
       </c>
       <c r="V31">
         <v>1</v>
@@ -13919,9 +13787,6 @@
       <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="I32">
-        <v>-2139</v>
-      </c>
       <c r="J32">
         <v>0.09999999999999964</v>
       </c>
@@ -13929,7 +13794,7 @@
         <v>0.3000000000000007</v>
       </c>
       <c r="L32">
-        <v>-0.002000000000000113</v>
+        <v>-0.002000000000000002</v>
       </c>
       <c r="M32">
         <v>0.5</v>
@@ -13938,7 +13803,7 @@
         <v>0.7999999999999998</v>
       </c>
       <c r="O32">
-        <v>0.02800000000000002</v>
+        <v>0.02799999999999997</v>
       </c>
       <c r="P32">
         <v>-0.3000000000000007</v>
@@ -13956,7 +13821,7 @@
         <v>1.1</v>
       </c>
       <c r="U32">
-        <v>0.05599999999999994</v>
+        <v>0.05600000000000005</v>
       </c>
       <c r="V32">
         <v>-0.5</v>
@@ -14198,9 +14063,6 @@
       <c r="A35" s="1">
         <v>33</v>
       </c>
-      <c r="I35">
-        <v>-1649</v>
-      </c>
       <c r="J35">
         <v>1.199999999999999</v>
       </c>
@@ -14208,7 +14070,7 @@
         <v>7.400000000000002</v>
       </c>
       <c r="L35">
-        <v>-0.07099999999999995</v>
+        <v>-0.07100000000000001</v>
       </c>
       <c r="M35">
         <v>-0.8999999999999999</v>
@@ -14434,7 +14296,7 @@
         <v>8</v>
       </c>
       <c r="U37">
-        <v>0.6609999999999999</v>
+        <v>0.661</v>
       </c>
       <c r="V37">
         <v>2.7</v>
@@ -14477,9 +14339,6 @@
       <c r="A38" s="1">
         <v>36</v>
       </c>
-      <c r="I38">
-        <v>-1887</v>
-      </c>
       <c r="J38">
         <v>0.09999999999999964</v>
       </c>
@@ -14514,7 +14373,7 @@
         <v>-1.300000000000001</v>
       </c>
       <c r="U38">
-        <v>-0.07000000000000006</v>
+        <v>-0.06999999999999995</v>
       </c>
       <c r="V38">
         <v>0.6000000000000001</v>
@@ -14585,7 +14444,7 @@
         <v>24</v>
       </c>
       <c r="L39">
-        <v>0.5479999999999999</v>
+        <v>0.548</v>
       </c>
       <c r="M39">
         <v>2.2</v>
@@ -14756,9 +14615,6 @@
       <c r="A41" s="1">
         <v>39</v>
       </c>
-      <c r="I41">
-        <v>-2050</v>
-      </c>
       <c r="J41">
         <v>1.4</v>
       </c>
@@ -14766,7 +14622,7 @@
         <v>1.600000000000001</v>
       </c>
       <c r="L41">
-        <v>0.01700000000000002</v>
+        <v>0.0169999999999999</v>
       </c>
       <c r="M41">
         <v>0.6999999999999997</v>
@@ -14775,7 +14631,7 @@
         <v>1</v>
       </c>
       <c r="O41">
-        <v>0.04800000000000004</v>
+        <v>0.04799999999999999</v>
       </c>
       <c r="P41">
         <v>0.6999999999999993</v>
@@ -15035,9 +14891,6 @@
       <c r="A44" s="1">
         <v>42</v>
       </c>
-      <c r="I44">
-        <v>-2104</v>
-      </c>
       <c r="J44">
         <v>1.699999999999999</v>
       </c>
@@ -15054,7 +14907,7 @@
         <v>-0.09999999999999964</v>
       </c>
       <c r="O44">
-        <v>-0.02500000000000002</v>
+        <v>-0.02499999999999997</v>
       </c>
       <c r="P44">
         <v>1.9</v>
@@ -15161,7 +15014,7 @@
         <v>18.4</v>
       </c>
       <c r="R45">
-        <v>0.5820000000000001</v>
+        <v>0.582</v>
       </c>
       <c r="S45">
         <v>6.7</v>
@@ -15368,7 +15221,7 @@
         <v>17</v>
       </c>
       <c r="R48">
-        <v>0.6459999999999999</v>
+        <v>0.646</v>
       </c>
       <c r="S48">
         <v>7</v>
@@ -15420,9 +15273,6 @@
       <c r="A49" s="1">
         <v>47</v>
       </c>
-      <c r="I49">
-        <v>-1554</v>
-      </c>
       <c r="J49">
         <v>0.7000000000000011</v>
       </c>
@@ -15448,7 +15298,7 @@
         <v>-1</v>
       </c>
       <c r="R49">
-        <v>0.08199999999999996</v>
+        <v>0.08200000000000007</v>
       </c>
       <c r="S49">
         <v>1.6</v>
@@ -15793,9 +15643,6 @@
       <c r="A54" s="1">
         <v>52</v>
       </c>
-      <c r="I54">
-        <v>-26709</v>
-      </c>
       <c r="J54">
         <v>0.4000000000000004</v>
       </c>
@@ -15803,7 +15650,7 @@
         <v>1.100000000000001</v>
       </c>
       <c r="L54">
-        <v>-0.007000000000000062</v>
+        <v>-0.007000000000000006</v>
       </c>
       <c r="M54">
         <v>0.1000000000000001</v>
@@ -15812,7 +15659,7 @@
         <v>0.5</v>
       </c>
       <c r="O54">
-        <v>-0.01400000000000007</v>
+        <v>-0.01400000000000001</v>
       </c>
       <c r="P54">
         <v>0.3000000000000007</v>
@@ -15913,7 +15760,7 @@
         <v>17.9</v>
       </c>
       <c r="R55">
-        <v>0.5770000000000001</v>
+        <v>0.577</v>
       </c>
       <c r="S55">
         <v>6</v>
@@ -16008,7 +15855,7 @@
         <v>17</v>
       </c>
       <c r="R56">
-        <v>0.6459999999999999</v>
+        <v>0.646</v>
       </c>
       <c r="S56">
         <v>7</v>
@@ -16060,9 +15907,6 @@
       <c r="A57" s="1">
         <v>55</v>
       </c>
-      <c r="I57">
-        <v>-4939</v>
-      </c>
       <c r="J57">
         <v>0.5999999999999996</v>
       </c>
@@ -16088,7 +15932,7 @@
         <v>-0.8999999999999986</v>
       </c>
       <c r="R57">
-        <v>0.06899999999999984</v>
+        <v>0.06900000000000006</v>
       </c>
       <c r="S57">
         <v>1</v>
@@ -16162,7 +16006,7 @@
         <v>25.3</v>
       </c>
       <c r="L58">
-        <v>0.5429999999999999</v>
+        <v>0.543</v>
       </c>
       <c r="M58">
         <v>1.7</v>
@@ -16180,7 +16024,7 @@
         <v>20.7</v>
       </c>
       <c r="R58">
-        <v>0.5820000000000001</v>
+        <v>0.582</v>
       </c>
       <c r="S58">
         <v>8.199999999999999</v>
@@ -16327,9 +16171,6 @@
       <c r="A60" s="1">
         <v>58</v>
       </c>
-      <c r="I60">
-        <v>-7540</v>
-      </c>
       <c r="J60">
         <v>-1.200000000000001</v>
       </c>
@@ -16337,7 +16178,7 @@
         <v>-0.3000000000000007</v>
       </c>
       <c r="L60">
-        <v>-0.03999999999999992</v>
+        <v>-0.04000000000000004</v>
       </c>
       <c r="M60">
         <v>0.2</v>
@@ -16355,7 +16196,7 @@
         <v>-1</v>
       </c>
       <c r="R60">
-        <v>-0.03700000000000003</v>
+        <v>-0.03699999999999992</v>
       </c>
       <c r="S60">
         <v>0.3000000000000007</v>
@@ -16453,7 +16294,7 @@
         <v>10.7</v>
       </c>
       <c r="U61">
-        <v>0.7340000000000001</v>
+        <v>0.734</v>
       </c>
       <c r="V61">
         <v>1.6</v>
@@ -16536,7 +16377,7 @@
         <v>20.6</v>
       </c>
       <c r="R62">
-        <v>0.5429999999999999</v>
+        <v>0.543</v>
       </c>
       <c r="S62">
         <v>8.6</v>
@@ -16588,9 +16429,6 @@
       <c r="A63" s="1">
         <v>61</v>
       </c>
-      <c r="I63">
-        <v>-39188</v>
-      </c>
       <c r="J63">
         <v>0</v>
       </c>
@@ -16616,7 +16454,7 @@
         <v>0.1000000000000014</v>
       </c>
       <c r="R63">
-        <v>-0.007000000000000117</v>
+        <v>-0.007000000000000006</v>
       </c>
       <c r="S63">
         <v>0.6999999999999993</v>
@@ -16625,7 +16463,7 @@
         <v>0.9000000000000004</v>
       </c>
       <c r="U63">
-        <v>0.006999999999999895</v>
+        <v>0.007000000000000006</v>
       </c>
       <c r="V63">
         <v>0.3999999999999999</v>
@@ -16889,13 +16727,13 @@
         <v>25.7</v>
       </c>
       <c r="J4">
-        <v>0.5539999999999999</v>
+        <v>0.554</v>
       </c>
       <c r="K4">
         <v>0.183</v>
       </c>
       <c r="L4">
-        <v>0.3779999999999999</v>
+        <v>0.378</v>
       </c>
       <c r="M4">
         <v>3.8</v>
@@ -17136,9 +16974,6 @@
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="H8">
-        <v>-2757</v>
-      </c>
       <c r="I8">
         <v>-4.900000000000002</v>
       </c>
@@ -17146,7 +16981,7 @@
         <v>-0.0109999999999999</v>
       </c>
       <c r="K8">
-        <v>-0.00300000000000003</v>
+        <v>-0.003000000000000003</v>
       </c>
       <c r="L8">
         <v>-0.063</v>
@@ -17185,7 +17020,7 @@
         <v>-14.6</v>
       </c>
       <c r="Y8">
-        <v>-0.09699999999999998</v>
+        <v>-0.097</v>
       </c>
       <c r="AA8">
         <v>-1.2</v>
@@ -17235,7 +17070,7 @@
         <v>0.191</v>
       </c>
       <c r="L9">
-        <v>0.4320000000000001</v>
+        <v>0.432</v>
       </c>
       <c r="M9">
         <v>3</v>
@@ -17382,9 +17217,6 @@
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="H11">
-        <v>-2297</v>
-      </c>
       <c r="I11">
         <v>-0.6000000000000014</v>
       </c>
@@ -17395,7 +17227,7 @@
         <v>-0.003000000000000003</v>
       </c>
       <c r="L11">
-        <v>0.05899999999999994</v>
+        <v>0.059</v>
       </c>
       <c r="M11">
         <v>0.3999999999999999</v>
@@ -17431,7 +17263,7 @@
         <v>-10</v>
       </c>
       <c r="Y11">
-        <v>-0.006000000000000005</v>
+        <v>-0.005999999999999978</v>
       </c>
       <c r="AA11">
         <v>-0.6000000000000005</v>
@@ -17628,9 +17460,6 @@
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="H14">
-        <v>-2475</v>
-      </c>
       <c r="I14">
         <v>-4.800000000000001</v>
       </c>
@@ -17638,7 +17467,7 @@
         <v>-0.04299999999999993</v>
       </c>
       <c r="K14">
-        <v>0.03600000000000003</v>
+        <v>0.036</v>
       </c>
       <c r="L14">
         <v>0.137</v>
@@ -17874,9 +17703,6 @@
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="H17">
-        <v>-2474</v>
-      </c>
       <c r="I17">
         <v>5.699999999999999</v>
       </c>
@@ -17884,7 +17710,7 @@
         <v>0.02700000000000002</v>
       </c>
       <c r="K17">
-        <v>0.02199999999999999</v>
+        <v>0.02200000000000002</v>
       </c>
       <c r="L17">
         <v>0.166</v>
@@ -17923,7 +17749,7 @@
         <v>-15.5</v>
       </c>
       <c r="Y17">
-        <v>0.08099999999999996</v>
+        <v>0.08100000000000002</v>
       </c>
       <c r="AA17">
         <v>3.300000000000001</v>
@@ -18120,9 +17946,6 @@
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="H20">
-        <v>-2506</v>
-      </c>
       <c r="I20">
         <v>-2.5</v>
       </c>
@@ -18366,9 +18189,6 @@
       <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="H23">
-        <v>-2141</v>
-      </c>
       <c r="I23">
         <v>-3.600000000000001</v>
       </c>
@@ -18548,7 +18368,7 @@
         <v>30.3</v>
       </c>
       <c r="J25">
-        <v>0.5760000000000001</v>
+        <v>0.576</v>
       </c>
       <c r="K25">
         <v>0.169</v>
@@ -18612,17 +18432,14 @@
       <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="H26">
-        <v>-1343</v>
-      </c>
       <c r="I26">
         <v>-0.3999999999999986</v>
       </c>
       <c r="J26">
-        <v>-0.02899999999999991</v>
+        <v>-0.02900000000000003</v>
       </c>
       <c r="K26">
-        <v>0.04199999999999998</v>
+        <v>0.04200000000000001</v>
       </c>
       <c r="L26">
         <v>0.03700000000000003</v>
@@ -18858,9 +18675,6 @@
       <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="H29">
-        <v>-1917</v>
-      </c>
       <c r="I29">
         <v>-3.5</v>
       </c>
@@ -18957,7 +18771,7 @@
         <v>0.226</v>
       </c>
       <c r="L30">
-        <v>0.4320000000000001</v>
+        <v>0.432</v>
       </c>
       <c r="M30">
         <v>3.6</v>
@@ -19040,7 +18854,7 @@
         <v>31</v>
       </c>
       <c r="J31">
-        <v>0.6679999999999999</v>
+        <v>0.668</v>
       </c>
       <c r="K31">
         <v>0.253</v>
@@ -19104,14 +18918,11 @@
       <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="H32">
-        <v>-2139</v>
-      </c>
       <c r="I32">
         <v>1.699999999999999</v>
       </c>
       <c r="J32">
-        <v>0.01899999999999991</v>
+        <v>0.01900000000000002</v>
       </c>
       <c r="K32">
         <v>0.027</v>
@@ -19153,7 +18964,7 @@
         <v>-11.6</v>
       </c>
       <c r="Y32">
-        <v>0.004999999999999949</v>
+        <v>0.005000000000000004</v>
       </c>
       <c r="AA32">
         <v>0.7000000000000002</v>
@@ -19197,7 +19008,7 @@
         <v>25.9</v>
       </c>
       <c r="J33">
-        <v>0.5770000000000001</v>
+        <v>0.577</v>
       </c>
       <c r="K33">
         <v>0.265</v>
@@ -19350,17 +19161,14 @@
       <c r="A35" s="1">
         <v>33</v>
       </c>
-      <c r="H35">
-        <v>-1649</v>
-      </c>
       <c r="I35">
         <v>-0.5999999999999979</v>
       </c>
       <c r="J35">
-        <v>-0.09000000000000002</v>
+        <v>-0.08999999999999997</v>
       </c>
       <c r="K35">
-        <v>-0.06300000000000003</v>
+        <v>-0.063</v>
       </c>
       <c r="L35">
         <v>-0.106</v>
@@ -19399,7 +19207,7 @@
         <v>-7.4</v>
       </c>
       <c r="Y35">
-        <v>-0.02599999999999997</v>
+        <v>-0.02600000000000002</v>
       </c>
       <c r="AA35">
         <v>-0.1999999999999993</v>
@@ -19596,9 +19404,6 @@
       <c r="A38" s="1">
         <v>36</v>
       </c>
-      <c r="H38">
-        <v>-1887</v>
-      </c>
       <c r="I38">
         <v>2.5</v>
       </c>
@@ -19606,10 +19411,10 @@
         <v>-0.003000000000000003</v>
       </c>
       <c r="K38">
-        <v>0.02600000000000002</v>
+        <v>0.026</v>
       </c>
       <c r="L38">
-        <v>-0.05000000000000004</v>
+        <v>-0.04999999999999999</v>
       </c>
       <c r="M38">
         <v>1.399999999999999</v>
@@ -19645,7 +19450,7 @@
         <v>-8.899999999999999</v>
       </c>
       <c r="Y38">
-        <v>0.03199999999999997</v>
+        <v>0.03200000000000003</v>
       </c>
       <c r="AA38">
         <v>0.4000000000000004</v>
@@ -19842,9 +19647,6 @@
       <c r="A41" s="1">
         <v>39</v>
       </c>
-      <c r="H41">
-        <v>-2050</v>
-      </c>
       <c r="I41">
         <v>3.100000000000001</v>
       </c>
@@ -19852,10 +19654,10 @@
         <v>0.03000000000000003</v>
       </c>
       <c r="K41">
-        <v>0.02499999999999997</v>
+        <v>0.02500000000000002</v>
       </c>
       <c r="L41">
-        <v>0.02700000000000002</v>
+        <v>0.02699999999999997</v>
       </c>
       <c r="M41">
         <v>-0.8999999999999999</v>
@@ -20088,9 +19890,6 @@
       <c r="A44" s="1">
         <v>42</v>
       </c>
-      <c r="H44">
-        <v>-2104</v>
-      </c>
       <c r="I44">
         <v>3.600000000000001</v>
       </c>
@@ -20098,7 +19897,7 @@
         <v>-0.002000000000000002</v>
       </c>
       <c r="K44">
-        <v>-0.03300000000000003</v>
+        <v>-0.033</v>
       </c>
       <c r="L44">
         <v>0.08199999999999996</v>
@@ -20137,7 +19936,7 @@
         <v>-8.800000000000001</v>
       </c>
       <c r="Y44">
-        <v>0.04799999999999996</v>
+        <v>0.04800000000000001</v>
       </c>
       <c r="AA44">
         <v>2.8</v>
@@ -20275,7 +20074,7 @@
         <v>25.5</v>
       </c>
       <c r="J47">
-        <v>0.5770000000000001</v>
+        <v>0.577</v>
       </c>
       <c r="K47">
         <v>0.326</v>
@@ -20428,14 +20227,11 @@
       <c r="A49" s="1">
         <v>47</v>
       </c>
-      <c r="H49">
-        <v>-1554</v>
-      </c>
       <c r="I49">
         <v>4.699999999999999</v>
       </c>
       <c r="J49">
-        <v>0.06999999999999995</v>
+        <v>0.07000000000000006</v>
       </c>
       <c r="K49">
         <v>-0.01400000000000001</v>
@@ -20477,7 +20273,7 @@
         <v>-5.500000000000001</v>
       </c>
       <c r="Y49">
-        <v>0.06499999999999997</v>
+        <v>0.06500000000000003</v>
       </c>
       <c r="AA49">
         <v>1</v>
@@ -20692,7 +20488,7 @@
         <v>28.3</v>
       </c>
       <c r="J53">
-        <v>0.5710000000000001</v>
+        <v>0.571</v>
       </c>
       <c r="K53">
         <v>0.227</v>
@@ -20756,20 +20552,17 @@
       <c r="A54" s="1">
         <v>52</v>
       </c>
-      <c r="H54">
-        <v>-26709</v>
-      </c>
       <c r="I54">
         <v>1.300000000000001</v>
       </c>
       <c r="J54">
-        <v>-0.003999999999999893</v>
+        <v>-0.004000000000000004</v>
       </c>
       <c r="K54">
-        <v>0.00899999999999998</v>
+        <v>0.009000000000000008</v>
       </c>
       <c r="L54">
-        <v>0.02499999999999997</v>
+        <v>0.02500000000000002</v>
       </c>
       <c r="M54">
         <v>0.6000000000000001</v>
@@ -20805,7 +20598,7 @@
         <v>-122.2</v>
       </c>
       <c r="Y54">
-        <v>0.01500000000000001</v>
+        <v>0.01499999999999999</v>
       </c>
       <c r="AA54">
         <v>0.7999999999999998</v>
@@ -20990,9 +20783,6 @@
       <c r="A57" s="1">
         <v>55</v>
       </c>
-      <c r="H57">
-        <v>-4939</v>
-      </c>
       <c r="I57">
         <v>5</v>
       </c>
@@ -21003,7 +20793,7 @@
         <v>-0.01200000000000001</v>
       </c>
       <c r="L57">
-        <v>0.06199999999999994</v>
+        <v>0.062</v>
       </c>
       <c r="M57">
         <v>1.600000000000001</v>
@@ -21039,7 +20829,7 @@
         <v>-18.3</v>
       </c>
       <c r="Y57">
-        <v>0.07899999999999996</v>
+        <v>0.07900000000000001</v>
       </c>
       <c r="AA57">
         <v>1.199999999999999</v>
@@ -21224,9 +21014,6 @@
       <c r="A60" s="1">
         <v>58</v>
       </c>
-      <c r="H60">
-        <v>-7540</v>
-      </c>
       <c r="I60">
         <v>-1.400000000000002</v>
       </c>
@@ -21308,7 +21095,7 @@
         <v>27.4</v>
       </c>
       <c r="J61">
-        <v>0.5870000000000001</v>
+        <v>0.587</v>
       </c>
       <c r="K61">
         <v>0.224</v>
@@ -21452,20 +21239,17 @@
       <c r="A63" s="1">
         <v>61</v>
       </c>
-      <c r="H63">
-        <v>-39188</v>
-      </c>
       <c r="I63">
         <v>1</v>
       </c>
       <c r="J63">
-        <v>-0.003000000000000114</v>
+        <v>-0.003000000000000003</v>
       </c>
       <c r="K63">
         <v>0.005000000000000004</v>
       </c>
       <c r="L63">
-        <v>0.03000000000000003</v>
+        <v>0.02999999999999997</v>
       </c>
       <c r="M63">
         <v>0.8000000000000003</v>
@@ -21501,7 +21285,7 @@
         <v>-186.6</v>
       </c>
       <c r="Y63">
-        <v>0.01300000000000001</v>
+        <v>0.01299999999999998</v>
       </c>
       <c r="AA63">
         <v>0.5</v>

--- a/output/jamesle01.xlsx
+++ b/output/jamesle01.xlsx
@@ -25,7 +25,7 @@
     <t>Age</t>
   </si>
   <si>
-    <t>Tm</t>
+    <t>Team</t>
   </si>
   <si>
     <t>Lg</t>
@@ -20335,7 +20335,7 @@
         <v>13.1</v>
       </c>
       <c r="P50">
-        <v>41.4</v>
+        <v>41.5</v>
       </c>
       <c r="Q50">
         <v>1.5</v>
@@ -20648,7 +20648,7 @@
         <v>2.8</v>
       </c>
       <c r="N55">
-        <v>22.1</v>
+        <v>22</v>
       </c>
       <c r="O55">
         <v>12.6</v>
@@ -20799,7 +20799,7 @@
         <v>1.600000000000001</v>
       </c>
       <c r="N57">
-        <v>8.399999999999999</v>
+        <v>8.5</v>
       </c>
       <c r="O57">
         <v>4.9</v>

--- a/output/jamesle01.xlsx
+++ b/output/jamesle01.xlsx
@@ -25,7 +25,7 @@
     <t>Age</t>
   </si>
   <si>
-    <t>Team</t>
+    <t>Tm</t>
   </si>
   <si>
     <t>Lg</t>

--- a/output/jamesle01.xlsx
+++ b/output/jamesle01.xlsx
@@ -16515,7 +16515,7 @@
         <v>0.308</v>
       </c>
       <c r="P55">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="Q55">
         <v>20.5</v>
@@ -16524,7 +16524,7 @@
         <v>0.587</v>
       </c>
       <c r="S55">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="T55">
         <v>8.199999999999999</v>
@@ -16536,10 +16536,10 @@
         <v>1.6</v>
       </c>
       <c r="W55">
-        <v>9.4</v>
+        <v>9.5</v>
       </c>
       <c r="X55">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="Y55">
         <v>9.1</v>
@@ -16921,7 +16921,7 @@
         <v>2.4</v>
       </c>
       <c r="AD60">
-        <v>36.9</v>
+        <v>37</v>
       </c>
       <c r="AF60">
         <v>115</v>
@@ -17093,7 +17093,7 @@
         <v>0</v>
       </c>
       <c r="AD62">
-        <v>-0.6000000000000014</v>
+        <v>-0.7000000000000028</v>
       </c>
       <c r="AF62">
         <v>5</v>
@@ -21776,7 +21776,7 @@
         <v>1695</v>
       </c>
       <c r="I55">
-        <v>24.3</v>
+        <v>24.2</v>
       </c>
       <c r="J55">
         <v>0.583</v>
@@ -21791,13 +21791,13 @@
         <v>3.7</v>
       </c>
       <c r="N55">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="O55">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="P55">
-        <v>33.9</v>
+        <v>34.1</v>
       </c>
       <c r="Q55">
         <v>1.2</v>
@@ -21815,7 +21815,7 @@
         <v>3</v>
       </c>
       <c r="W55">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="X55">
         <v>5</v>
@@ -22116,7 +22116,7 @@
         <v>12.4</v>
       </c>
       <c r="P60">
-        <v>39.2</v>
+        <v>39.3</v>
       </c>
       <c r="Q60">
         <v>1.6</v>
@@ -22267,7 +22267,7 @@
         <v>3.6</v>
       </c>
       <c r="P62">
-        <v>3.599999999999994</v>
+        <v>3.5</v>
       </c>
       <c r="Q62">
         <v>0.2</v>
@@ -22593,7 +22593,7 @@
         <v>176.9</v>
       </c>
       <c r="W66">
-        <v>77.59999999999999</v>
+        <v>77.7</v>
       </c>
       <c r="X66">
         <v>254.6</v>
@@ -22741,7 +22741,7 @@
         <v>-138.7</v>
       </c>
       <c r="W68">
-        <v>-60.09999999999999</v>
+        <v>-60.2</v>
       </c>
       <c r="X68">
         <v>-198.9</v>

--- a/output/jamesle01.xlsx
+++ b/output/jamesle01.xlsx
@@ -5242,40 +5242,40 @@
         <v>28</v>
       </c>
       <c r="G55">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H55">
         <v>47</v>
       </c>
       <c r="I55">
-        <v>36.1</v>
+        <v>35.9</v>
       </c>
       <c r="J55">
-        <v>11.3</v>
+        <v>11.2</v>
       </c>
       <c r="K55">
-        <v>22.6</v>
+        <v>22.3</v>
       </c>
       <c r="L55">
-        <v>0.501</v>
+        <v>0.502</v>
       </c>
       <c r="M55">
         <v>2.1</v>
       </c>
       <c r="N55">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="O55">
-        <v>0.308</v>
+        <v>0.306</v>
       </c>
       <c r="P55">
-        <v>9.199999999999999</v>
+        <v>9.1</v>
       </c>
       <c r="Q55">
-        <v>15.7</v>
+        <v>15.5</v>
       </c>
       <c r="R55">
-        <v>0.587</v>
+        <v>0.588</v>
       </c>
       <c r="S55">
         <v>0.549</v>
@@ -5287,7 +5287,7 @@
         <v>6.3</v>
       </c>
       <c r="V55">
-        <v>0.759</v>
+        <v>0.762</v>
       </c>
       <c r="W55">
         <v>1.2</v>
@@ -5305,16 +5305,16 @@
         <v>0.9</v>
       </c>
       <c r="AB55">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AC55">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="AD55">
         <v>1.7</v>
       </c>
       <c r="AE55">
-        <v>29.5</v>
+        <v>29.3</v>
       </c>
       <c r="AF55" t="s">
         <v>85</v>
@@ -5594,7 +5594,7 @@
         <v>80</v>
       </c>
       <c r="G60">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H60">
         <v>270</v>
@@ -5603,10 +5603,10 @@
         <v>35.3</v>
       </c>
       <c r="J60">
-        <v>10.4</v>
+        <v>10.3</v>
       </c>
       <c r="K60">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="L60">
         <v>0.508</v>
@@ -5618,7 +5618,7 @@
         <v>6.7</v>
       </c>
       <c r="O60">
-        <v>0.345</v>
+        <v>0.344</v>
       </c>
       <c r="P60">
         <v>8</v>
@@ -5639,7 +5639,7 @@
         <v>6.2</v>
       </c>
       <c r="V60">
-        <v>0.711</v>
+        <v>0.712</v>
       </c>
       <c r="W60">
         <v>1</v>
@@ -5666,7 +5666,7 @@
         <v>1.8</v>
       </c>
       <c r="AE60">
-        <v>27.5</v>
+        <v>27.4</v>
       </c>
       <c r="AF60" t="s">
         <v>85</v>
@@ -5769,10 +5769,10 @@
         <v>60</v>
       </c>
       <c r="J62">
-        <v>-0.5</v>
+        <v>-0.4000000000000004</v>
       </c>
       <c r="K62">
-        <v>-2</v>
+        <v>-1.900000000000002</v>
       </c>
       <c r="L62">
         <v>0.03200000000000003</v>
@@ -5784,7 +5784,7 @@
         <v>-0.5</v>
       </c>
       <c r="O62">
-        <v>0.02600000000000002</v>
+        <v>0.02700000000000002</v>
       </c>
       <c r="P62">
         <v>-0.4000000000000004</v>
@@ -5805,7 +5805,7 @@
         <v>0.2000000000000002</v>
       </c>
       <c r="V62">
-        <v>-0.006000000000000005</v>
+        <v>-0.007000000000000006</v>
       </c>
       <c r="W62">
         <v>0.3</v>
@@ -5832,7 +5832,7 @@
         <v>-0.1000000000000001</v>
       </c>
       <c r="AE62">
-        <v>-0.8000000000000007</v>
+        <v>-0.6999999999999993</v>
       </c>
     </row>
     <row r="63" spans="1:32">
@@ -6101,7 +6101,7 @@
         <v>80</v>
       </c>
       <c r="G66">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="H66">
         <v>1412</v>
@@ -10734,40 +10734,40 @@
         <v>28</v>
       </c>
       <c r="G55">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H55">
         <v>47</v>
       </c>
       <c r="I55">
-        <v>1695</v>
+        <v>1725</v>
       </c>
       <c r="J55">
-        <v>11.3</v>
+        <v>11.2</v>
       </c>
       <c r="K55">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="L55">
-        <v>0.501</v>
+        <v>0.502</v>
       </c>
       <c r="M55">
         <v>2.1</v>
       </c>
       <c r="N55">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="O55">
-        <v>0.308</v>
+        <v>0.306</v>
       </c>
       <c r="P55">
-        <v>9.199999999999999</v>
+        <v>9.1</v>
       </c>
       <c r="Q55">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="R55">
-        <v>0.587</v>
+        <v>0.588</v>
       </c>
       <c r="S55">
         <v>4.8</v>
@@ -10776,7 +10776,7 @@
         <v>6.3</v>
       </c>
       <c r="U55">
-        <v>0.759</v>
+        <v>0.762</v>
       </c>
       <c r="V55">
         <v>1.2</v>
@@ -10794,16 +10794,16 @@
         <v>0.9</v>
       </c>
       <c r="AA55">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AB55">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="AC55">
         <v>1.7</v>
       </c>
       <c r="AD55">
-        <v>29.5</v>
+        <v>29.4</v>
       </c>
       <c r="AE55" t="s">
         <v>85</v>
@@ -11074,16 +11074,16 @@
         <v>80</v>
       </c>
       <c r="G60">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H60">
         <v>270</v>
       </c>
       <c r="I60">
-        <v>9536</v>
+        <v>9566</v>
       </c>
       <c r="J60">
-        <v>10.6</v>
+        <v>10.5</v>
       </c>
       <c r="K60">
         <v>20.8</v>
@@ -11092,13 +11092,13 @@
         <v>0.508</v>
       </c>
       <c r="M60">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="N60">
         <v>6.8</v>
       </c>
       <c r="O60">
-        <v>0.345</v>
+        <v>0.344</v>
       </c>
       <c r="P60">
         <v>8.199999999999999</v>
@@ -11116,7 +11116,7 @@
         <v>6.4</v>
       </c>
       <c r="U60">
-        <v>0.711</v>
+        <v>0.712</v>
       </c>
       <c r="V60">
         <v>1</v>
@@ -11243,7 +11243,7 @@
         <v>60</v>
       </c>
       <c r="J62">
-        <v>-0.7999999999999989</v>
+        <v>-0.6999999999999993</v>
       </c>
       <c r="K62">
         <v>-2.699999999999999</v>
@@ -11252,13 +11252,13 @@
         <v>0.03200000000000003</v>
       </c>
       <c r="M62">
-        <v>-0.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="N62">
         <v>-0.7000000000000002</v>
       </c>
       <c r="O62">
-        <v>0.02600000000000002</v>
+        <v>0.02700000000000002</v>
       </c>
       <c r="P62">
         <v>-0.6999999999999993</v>
@@ -11276,7 +11276,7 @@
         <v>-0.1000000000000005</v>
       </c>
       <c r="U62">
-        <v>-0.006000000000000005</v>
+        <v>-0.007000000000000006</v>
       </c>
       <c r="V62">
         <v>0.3</v>
@@ -11563,13 +11563,13 @@
         <v>80</v>
       </c>
       <c r="G66">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="H66">
         <v>1412</v>
       </c>
       <c r="I66">
-        <v>53834</v>
+        <v>53864</v>
       </c>
       <c r="J66">
         <v>9.4</v>
@@ -16488,49 +16488,49 @@
         <v>28</v>
       </c>
       <c r="G55">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H55">
         <v>47</v>
       </c>
       <c r="I55">
-        <v>1695</v>
+        <v>1725</v>
       </c>
       <c r="J55">
         <v>14.8</v>
       </c>
       <c r="K55">
-        <v>29.6</v>
+        <v>29.4</v>
       </c>
       <c r="L55">
-        <v>0.501</v>
+        <v>0.502</v>
       </c>
       <c r="M55">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="N55">
-        <v>9.1</v>
+        <v>9</v>
       </c>
       <c r="O55">
-        <v>0.308</v>
+        <v>0.306</v>
       </c>
       <c r="P55">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="Q55">
         <v>20.5</v>
       </c>
       <c r="R55">
-        <v>0.587</v>
+        <v>0.588</v>
       </c>
       <c r="S55">
         <v>6.3</v>
       </c>
       <c r="T55">
-        <v>8.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="U55">
-        <v>0.759</v>
+        <v>0.762</v>
       </c>
       <c r="V55">
         <v>1.6</v>
@@ -16542,7 +16542,7 @@
         <v>11.1</v>
       </c>
       <c r="Y55">
-        <v>9.1</v>
+        <v>9</v>
       </c>
       <c r="Z55">
         <v>1.2</v>
@@ -16551,7 +16551,7 @@
         <v>0.7</v>
       </c>
       <c r="AB55">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="AC55">
         <v>2.2</v>
@@ -16852,13 +16852,13 @@
         <v>80</v>
       </c>
       <c r="G60">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H60">
         <v>270</v>
       </c>
       <c r="I60">
-        <v>9536</v>
+        <v>9566</v>
       </c>
       <c r="J60">
         <v>13.9</v>
@@ -16876,7 +16876,7 @@
         <v>9</v>
       </c>
       <c r="O60">
-        <v>0.345</v>
+        <v>0.344</v>
       </c>
       <c r="P60">
         <v>10.8</v>
@@ -16894,7 +16894,7 @@
         <v>8.4</v>
       </c>
       <c r="U60">
-        <v>0.711</v>
+        <v>0.712</v>
       </c>
       <c r="V60">
         <v>1.4</v>
@@ -16921,7 +16921,7 @@
         <v>2.4</v>
       </c>
       <c r="AD60">
-        <v>37</v>
+        <v>36.9</v>
       </c>
       <c r="AF60">
         <v>115</v>
@@ -17048,7 +17048,7 @@
         <v>-0.5999999999999996</v>
       </c>
       <c r="O62">
-        <v>0.02600000000000002</v>
+        <v>0.02700000000000002</v>
       </c>
       <c r="P62">
         <v>-0.4000000000000004</v>
@@ -17066,7 +17066,7 @@
         <v>0.2999999999999989</v>
       </c>
       <c r="U62">
-        <v>-0.006000000000000005</v>
+        <v>-0.007000000000000006</v>
       </c>
       <c r="V62">
         <v>0.4000000000000001</v>
@@ -17093,7 +17093,7 @@
         <v>0</v>
       </c>
       <c r="AD62">
-        <v>-0.7000000000000028</v>
+        <v>-0.6000000000000014</v>
       </c>
       <c r="AF62">
         <v>5</v>
@@ -17377,13 +17377,13 @@
         <v>80</v>
       </c>
       <c r="G66">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="H66">
         <v>1412</v>
       </c>
       <c r="I66">
-        <v>53834</v>
+        <v>53864</v>
       </c>
       <c r="J66">
         <v>13.5</v>
@@ -21770,34 +21770,34 @@
         <v>28</v>
       </c>
       <c r="G55">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H55">
-        <v>1695</v>
+        <v>1725</v>
       </c>
       <c r="I55">
-        <v>24.2</v>
+        <v>24.1</v>
       </c>
       <c r="J55">
-        <v>0.583</v>
+        <v>0.584</v>
       </c>
       <c r="K55">
-        <v>0.306</v>
+        <v>0.305</v>
       </c>
       <c r="L55">
-        <v>0.278</v>
+        <v>0.283</v>
       </c>
       <c r="M55">
         <v>3.7</v>
       </c>
       <c r="N55">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="O55">
         <v>12.5</v>
       </c>
       <c r="P55">
-        <v>34.1</v>
+        <v>33.7</v>
       </c>
       <c r="Q55">
         <v>1.2</v>
@@ -21806,7 +21806,7 @@
         <v>1.3</v>
       </c>
       <c r="S55">
-        <v>11</v>
+        <v>11.2</v>
       </c>
       <c r="T55">
         <v>33.3</v>
@@ -21821,16 +21821,16 @@
         <v>5</v>
       </c>
       <c r="Y55">
-        <v>0.143</v>
+        <v>0.14</v>
       </c>
       <c r="AA55">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="AB55">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="AC55">
-        <v>6.3</v>
+        <v>6.1</v>
       </c>
       <c r="AD55">
         <v>3.5</v>
@@ -22089,22 +22089,22 @@
         <v>80</v>
       </c>
       <c r="G60">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H60">
-        <v>9536</v>
+        <v>9566</v>
       </c>
       <c r="I60">
         <v>25.2</v>
       </c>
       <c r="J60">
-        <v>0.593</v>
+        <v>0.594</v>
       </c>
       <c r="K60">
         <v>0.329</v>
       </c>
       <c r="L60">
-        <v>0.306</v>
+        <v>0.307</v>
       </c>
       <c r="M60">
         <v>3.1</v>
@@ -22116,7 +22116,7 @@
         <v>12.4</v>
       </c>
       <c r="P60">
-        <v>39.3</v>
+        <v>39.2</v>
       </c>
       <c r="Q60">
         <v>1.6</v>
@@ -22125,7 +22125,7 @@
         <v>1.6</v>
       </c>
       <c r="S60">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="T60">
         <v>32.1</v>
@@ -22149,7 +22149,7 @@
         <v>1.4</v>
       </c>
       <c r="AC60">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="AD60">
         <v>23.5</v>
@@ -22249,13 +22249,13 @@
         <v>2.699999999999999</v>
       </c>
       <c r="J62">
-        <v>0.03600000000000003</v>
+        <v>0.03500000000000003</v>
       </c>
       <c r="K62">
         <v>0.008000000000000007</v>
       </c>
       <c r="L62">
-        <v>0.04299999999999998</v>
+        <v>0.04199999999999998</v>
       </c>
       <c r="M62">
         <v>0.9999999999999996</v>
@@ -22267,7 +22267,7 @@
         <v>3.6</v>
       </c>
       <c r="P62">
-        <v>3.5</v>
+        <v>3.599999999999994</v>
       </c>
       <c r="Q62">
         <v>0.2</v>
@@ -22276,7 +22276,7 @@
         <v>0.3999999999999999</v>
       </c>
       <c r="S62">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="T62">
         <v>-1.900000000000002</v>
@@ -22300,7 +22300,7 @@
         <v>1.6</v>
       </c>
       <c r="AC62">
-        <v>2.500000000000001</v>
+        <v>2.600000000000001</v>
       </c>
       <c r="AD62">
         <v>-20.4</v>
@@ -22548,10 +22548,10 @@
         <v>80</v>
       </c>
       <c r="G66">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="H66">
-        <v>53834</v>
+        <v>53864</v>
       </c>
       <c r="I66">
         <v>27.2</v>
